--- a/项目/中餐厅设备点检/PLC/RR081B的IO总表V2.3.xlsx
+++ b/项目/中餐厅设备点检/PLC/RR081B的IO总表V2.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="RR081B输入" sheetId="2" r:id="rId1"/>
@@ -1352,12 +1352,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,18 +1383,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1412,10 +1405,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1426,9 +1428,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,14 +1443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1457,16 +1451,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1481,24 +1490,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1512,23 +1512,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1543,7 +1536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,7 +1554,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,19 +1578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,13 +1590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,7 +1614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,7 +1626,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,13 +1680,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,79 +1716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,20 +1745,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1781,6 +1771,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1803,23 +1802,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1831,6 +1815,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1857,10 +1850,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1869,137 +1862,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2018,14 +2011,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2033,9 +2020,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2052,16 +2036,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2069,9 +2044,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2423,7 +2395,7 @@
   <sheetPr/>
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2471,7 +2443,7 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2482,14 +2454,14 @@
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2500,14 +2472,14 @@
         <v>10</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2518,14 +2490,14 @@
         <v>12</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="24"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2536,14 +2508,14 @@
         <v>14</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="24"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2553,15 +2525,15 @@
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="I7" s="7"/>
+      <c r="E7" s="16"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2572,14 +2544,14 @@
         <v>18</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2590,14 +2562,14 @@
         <v>20</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2608,14 +2580,14 @@
         <v>22</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="24"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2626,14 +2598,14 @@
         <v>24</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2644,14 +2616,14 @@
         <v>26</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2662,14 +2634,14 @@
         <v>28</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2680,14 +2652,14 @@
         <v>30</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2705,7 +2677,7 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="21"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
@@ -2714,14 +2686,14 @@
         <v>33</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2732,14 +2704,14 @@
         <v>35</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2750,14 +2722,14 @@
         <v>37</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="24"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2768,14 +2740,14 @@
         <v>39</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2786,14 +2758,14 @@
         <v>41</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="24"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2804,14 +2776,14 @@
         <v>43</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="24"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2822,14 +2794,14 @@
         <v>45</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="24"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2840,14 +2812,14 @@
         <v>47</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="21"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2856,14 +2828,14 @@
         <v>48</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="24"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="21"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2872,14 +2844,14 @@
         <v>49</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="21"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2888,14 +2860,14 @@
         <v>50</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="24"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2913,7 +2885,7 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2931,7 +2903,7 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2949,7 +2921,7 @@
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2960,14 +2932,14 @@
         <v>58</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2978,14 +2950,14 @@
         <v>60</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="24"/>
+      <c r="K31" s="18"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2996,14 +2968,14 @@
         <v>62</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="24"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3014,14 +2986,14 @@
         <v>64</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3032,14 +3004,14 @@
         <v>66</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="24"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3050,14 +3022,14 @@
         <v>68</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="24"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3068,14 +3040,14 @@
         <v>70</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="24"/>
+      <c r="K36" s="18"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3086,14 +3058,14 @@
         <v>72</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="I37" s="7"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="24"/>
+      <c r="K37" s="18"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3104,14 +3076,14 @@
         <v>74</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="I38" s="25"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3122,14 +3094,14 @@
         <v>76</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="I39" s="7"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="17"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3140,14 +3112,14 @@
         <v>78</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="I40" s="7"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="24"/>
+      <c r="K40" s="18"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3165,7 +3137,7 @@
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3183,7 +3155,7 @@
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3194,14 +3166,14 @@
         <v>84</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="I43" s="7"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="24"/>
+      <c r="K43" s="18"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -3212,14 +3184,14 @@
         <v>86</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="I44" s="7"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="24"/>
+      <c r="K44" s="18"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -3230,14 +3202,14 @@
         <v>88</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="I45" s="7"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="24"/>
+      <c r="K45" s="18"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -3248,14 +3220,14 @@
         <v>90</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="I46" s="7"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="24"/>
+      <c r="K46" s="18"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3266,14 +3238,14 @@
         <v>92</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="I47" s="7"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="24"/>
+      <c r="K47" s="18"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3284,14 +3256,14 @@
         <v>94</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="I48" s="7"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="24"/>
+      <c r="K48" s="18"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -3302,14 +3274,14 @@
         <v>96</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="I49" s="7"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="24"/>
+      <c r="K49" s="18"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -3320,1231 +3292,1231 @@
         <v>98</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="I50" s="7"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="24"/>
+      <c r="K50" s="18"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="23"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="I51" s="7"/>
+      <c r="E51" s="17"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="17"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="14"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="I52" s="7"/>
+      <c r="E52" s="17"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="17"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="14"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="23"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="I53" s="7"/>
+      <c r="E53" s="17"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="17"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="14"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="I54" s="7"/>
+      <c r="E54" s="17"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="17"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="14"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="I55" s="7"/>
+      <c r="E55" s="17"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="17"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="14"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="23"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="I56" s="7"/>
+      <c r="E56" s="17"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="17"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="14"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="23"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="23"/>
+      <c r="E57" s="17"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="17"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="14"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="I58" s="7"/>
+      <c r="E58" s="17"/>
+      <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="27"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="20"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="23"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="I59" s="7"/>
+      <c r="E59" s="17"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="27"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="20"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="I60" s="7"/>
+      <c r="E60" s="17"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="27"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="20"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="23"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="I61" s="7"/>
+      <c r="E61" s="17"/>
+      <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="27"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="20"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="I62" s="7"/>
+      <c r="E62" s="17"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="27"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="20"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="I63" s="7"/>
+      <c r="E63" s="17"/>
+      <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="27"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="20"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="I64" s="7"/>
+      <c r="E64" s="17"/>
+      <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="27"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="20"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="23"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="I65" s="7"/>
+      <c r="E65" s="17"/>
+      <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="27"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="20"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="23"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="23"/>
+      <c r="E66" s="17"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="27"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="20"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="23"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="30"/>
+      <c r="E67" s="17"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="23"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="23"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="23"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="30"/>
+      <c r="E68" s="17"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="23"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="23"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
+      <c r="E69" s="17"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="23"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
+      <c r="E70" s="17"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="21"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="23"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
+      <c r="E71" s="17"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="23"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
+      <c r="E72" s="17"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="23"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="E73" s="17"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="23"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="E74" s="17"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="23"/>
+      <c r="C75" s="17"/>
       <c r="D75" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E75" s="23"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="E75" s="17"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="23"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E76" s="23"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
+      <c r="E76" s="17"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="23"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E77" s="23"/>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="15" t="s">
         <v>152</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="23"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E78" s="23"/>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="23"/>
+      <c r="C79" s="17"/>
       <c r="D79" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E79" s="23"/>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="23"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E80" s="23"/>
+      <c r="E80" s="17"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="23"/>
+      <c r="C81" s="17"/>
       <c r="D81" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E81" s="23"/>
+      <c r="E81" s="17"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="23"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E82" s="23"/>
+      <c r="E82" s="17"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="17" t="s">
         <v>162</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="23"/>
+      <c r="C83" s="17"/>
       <c r="D83" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E83" s="23"/>
+      <c r="E83" s="17"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="17" t="s">
         <v>164</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="23"/>
+      <c r="C84" s="17"/>
       <c r="D84" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E84" s="23"/>
+      <c r="E84" s="17"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="23"/>
+      <c r="C85" s="17"/>
       <c r="D85" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E85" s="23"/>
+      <c r="E85" s="17"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="23"/>
+      <c r="C86" s="17"/>
       <c r="D86" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E86" s="23"/>
+      <c r="E86" s="17"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="17" t="s">
         <v>170</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="23"/>
+      <c r="C87" s="17"/>
       <c r="D87" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E87" s="23"/>
+      <c r="E87" s="17"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="17" t="s">
         <v>172</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="23"/>
+      <c r="C88" s="17"/>
       <c r="D88" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E88" s="23"/>
+      <c r="E88" s="17"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="17" t="s">
         <v>174</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="23"/>
+      <c r="C89" s="17"/>
       <c r="D89" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E89" s="23"/>
+      <c r="E89" s="17"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="17" t="s">
         <v>176</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="23"/>
+      <c r="C90" s="17"/>
       <c r="D90" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="17"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="23"/>
+      <c r="C91" s="17"/>
       <c r="D91" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="17"/>
     </row>
     <row r="92" ht="28.8" spans="1:5">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="23"/>
+      <c r="C92" s="17"/>
       <c r="D92" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="17"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="23"/>
+      <c r="C93" s="17"/>
       <c r="D93" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E93" s="23"/>
+      <c r="E93" s="17"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="23"/>
+      <c r="C94" s="17"/>
       <c r="D94" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E94" s="23"/>
+      <c r="E94" s="17"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="23"/>
+      <c r="C95" s="17"/>
       <c r="D95" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E95" s="23"/>
+      <c r="E95" s="17"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="23"/>
+      <c r="C96" s="17"/>
       <c r="D96" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E96" s="23"/>
+      <c r="E96" s="17"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="23"/>
+      <c r="C97" s="17"/>
       <c r="D97" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E97" s="23"/>
+      <c r="E97" s="17"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="23"/>
+      <c r="C98" s="17"/>
       <c r="D98" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E98" s="23"/>
+      <c r="E98" s="17"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="17" t="s">
         <v>191</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="23"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E99" s="23"/>
+      <c r="E99" s="17"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="17" t="s">
         <v>193</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="23"/>
+      <c r="C100" s="17"/>
       <c r="D100" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E100" s="23"/>
+      <c r="E100" s="17"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="17" t="s">
         <v>195</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="23"/>
+      <c r="C101" s="17"/>
       <c r="D101" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E101" s="23"/>
+      <c r="E101" s="17"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="17" t="s">
         <v>197</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="23"/>
+      <c r="C102" s="17"/>
       <c r="D102" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E102" s="23"/>
+      <c r="E102" s="17"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="17" t="s">
         <v>199</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="23"/>
+      <c r="C103" s="17"/>
       <c r="D103" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="17"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="17" t="s">
         <v>201</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="23"/>
+      <c r="C104" s="17"/>
       <c r="D104" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="17"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="17" t="s">
         <v>203</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="23"/>
+      <c r="C105" s="17"/>
       <c r="D105" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="17"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="17" t="s">
         <v>205</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="23"/>
+      <c r="C106" s="17"/>
       <c r="D106" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="17"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="23"/>
+      <c r="C107" s="17"/>
       <c r="D107" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="17"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="23"/>
+      <c r="C108" s="17"/>
       <c r="D108" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="17"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="17" t="s">
         <v>211</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="23"/>
+      <c r="C109" s="17"/>
       <c r="D109" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E109" s="23"/>
+      <c r="E109" s="17"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="17" t="s">
         <v>213</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="23"/>
+      <c r="C110" s="17"/>
       <c r="D110" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E110" s="23"/>
+      <c r="E110" s="17"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="17" t="s">
         <v>215</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="23"/>
+      <c r="C111" s="17"/>
       <c r="D111" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E111" s="23"/>
+      <c r="E111" s="17"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="17" t="s">
         <v>217</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="23"/>
+      <c r="C112" s="17"/>
       <c r="D112" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E112" s="23"/>
+      <c r="E112" s="17"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="17" t="s">
         <v>219</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="23"/>
+      <c r="C113" s="17"/>
       <c r="D113" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E113" s="23"/>
+      <c r="E113" s="17"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="17" t="s">
         <v>221</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="23"/>
+      <c r="C114" s="17"/>
       <c r="D114" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E114" s="23"/>
+      <c r="E114" s="17"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="17" t="s">
         <v>223</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="23"/>
+      <c r="C115" s="17"/>
       <c r="D115" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E115" s="23"/>
+      <c r="E115" s="17"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="23" t="s">
+      <c r="A116" s="17" t="s">
         <v>225</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="23"/>
+      <c r="C116" s="17"/>
       <c r="D116" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E116" s="23"/>
+      <c r="E116" s="17"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="17" t="s">
         <v>227</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="23"/>
+      <c r="C117" s="17"/>
       <c r="D117" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E117" s="23"/>
+      <c r="E117" s="17"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="17" t="s">
         <v>229</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="23"/>
+      <c r="C118" s="17"/>
       <c r="D118" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E118" s="23"/>
+      <c r="E118" s="17"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="17" t="s">
         <v>231</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="23"/>
+      <c r="C119" s="17"/>
       <c r="D119" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E119" s="23"/>
+      <c r="E119" s="17"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="23" t="s">
+      <c r="A120" s="17" t="s">
         <v>233</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="23"/>
+      <c r="C120" s="17"/>
       <c r="D120" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E120" s="23"/>
+      <c r="E120" s="17"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="23" t="s">
+      <c r="A121" s="17" t="s">
         <v>235</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="23"/>
+      <c r="C121" s="17"/>
       <c r="D121" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E121" s="23"/>
+      <c r="E121" s="17"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="23" t="s">
+      <c r="A122" s="17" t="s">
         <v>237</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C122" s="23"/>
+      <c r="C122" s="17"/>
       <c r="D122" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E122" s="23"/>
+      <c r="E122" s="17"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="23" t="s">
+      <c r="A123" s="17" t="s">
         <v>239</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="23"/>
+      <c r="C123" s="17"/>
       <c r="D123" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E123" s="23"/>
+      <c r="E123" s="17"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="17" t="s">
         <v>241</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="23"/>
+      <c r="C124" s="17"/>
       <c r="D124" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E124" s="23"/>
+      <c r="E124" s="17"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="23" t="s">
+      <c r="A125" s="17" t="s">
         <v>243</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="23"/>
+      <c r="C125" s="17"/>
       <c r="D125" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E125" s="23"/>
+      <c r="E125" s="17"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="17" t="s">
         <v>245</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="23"/>
+      <c r="C126" s="17"/>
       <c r="D126" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E126" s="23"/>
+      <c r="E126" s="17"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="17" t="s">
         <v>247</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="23"/>
+      <c r="C127" s="17"/>
       <c r="D127" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E127" s="23"/>
+      <c r="E127" s="17"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="17" t="s">
         <v>249</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="23"/>
+      <c r="C128" s="17"/>
       <c r="D128" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E128" s="23"/>
+      <c r="E128" s="17"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="23" t="s">
+      <c r="A129" s="17" t="s">
         <v>251</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="23"/>
+      <c r="C129" s="17"/>
       <c r="D129" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E129" s="23"/>
+      <c r="E129" s="17"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="23" t="s">
+      <c r="A130" s="17" t="s">
         <v>253</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C130" s="23"/>
+      <c r="C130" s="17"/>
       <c r="D130" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E130" s="23"/>
+      <c r="E130" s="17"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="23" t="s">
+      <c r="A131" s="17" t="s">
         <v>255</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="23"/>
-      <c r="D131" s="31" t="s">
+      <c r="C131" s="17"/>
+      <c r="D131" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="E131" s="23"/>
+      <c r="E131" s="17"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="23" t="s">
+      <c r="A132" s="17" t="s">
         <v>257</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="23"/>
-      <c r="D132" s="31" t="s">
+      <c r="C132" s="17"/>
+      <c r="D132" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="E132" s="23"/>
+      <c r="E132" s="17"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="23" t="s">
+      <c r="A133" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C133" s="23"/>
-      <c r="D133" s="31" t="s">
+      <c r="C133" s="17"/>
+      <c r="D133" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="E133" s="23"/>
+      <c r="E133" s="17"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="23" t="s">
+      <c r="A134" s="17" t="s">
         <v>261</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="23"/>
-      <c r="D134" s="31" t="s">
+      <c r="C134" s="17"/>
+      <c r="D134" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="E134" s="23"/>
+      <c r="E134" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4562,8 +4534,8 @@
   <sheetPr/>
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4589,12 +4561,12 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
@@ -4614,15 +4586,15 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="16"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="6" t="s">
@@ -4641,12 +4613,12 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="6" t="s">
@@ -4665,12 +4637,12 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="6" t="s">
@@ -4689,12 +4661,12 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="6" t="s">
@@ -4713,12 +4685,12 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="6" t="s">
@@ -4737,12 +4709,12 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="6" t="s">
@@ -4761,12 +4733,12 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="6" t="s">
@@ -4785,12 +4757,12 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="6" t="s">
@@ -4809,12 +4781,12 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="6" t="s">
@@ -4830,17 +4802,17 @@
         <v>283</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="6" t="s">
@@ -4856,17 +4828,17 @@
         <v>286</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="6" t="s">
@@ -4882,17 +4854,17 @@
         <v>289</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="6"/>
@@ -4904,17 +4876,17 @@
         <v>290</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="6" t="s">
@@ -4928,17 +4900,17 @@
         <v>292</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="6" t="s">
@@ -4952,17 +4924,17 @@
         <v>294</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="6" t="s">
@@ -4976,17 +4948,17 @@
         <v>296</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="6" t="s">
@@ -5000,17 +4972,17 @@
         <v>298</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="6" t="s">
@@ -5024,17 +4996,17 @@
         <v>300</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="6" t="s">
@@ -5048,17 +5020,17 @@
         <v>302</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="6" t="s">
@@ -5072,17 +5044,17 @@
         <v>304</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="6" t="s">
@@ -5096,17 +5068,17 @@
         <v>306</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="6" t="s">
@@ -5120,17 +5092,17 @@
         <v>308</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="6" t="s">
@@ -5144,17 +5116,17 @@
         <v>310</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="6" t="s">
@@ -5168,17 +5140,17 @@
         <v>312</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="6" t="s">
@@ -5192,17 +5164,17 @@
         <v>314</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="6" t="s">
@@ -5216,17 +5188,17 @@
         <v>316</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="6" t="s">
@@ -5240,17 +5212,17 @@
         <v>318</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="6" t="s">
@@ -5259,22 +5231,22 @@
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
         <v>320</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="6" t="s">
@@ -5288,17 +5260,17 @@
         <v>322</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="6" t="s">
@@ -5312,17 +5284,17 @@
         <v>324</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="6" t="s">
@@ -5336,17 +5308,17 @@
         <v>326</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="6" t="s">
@@ -5360,17 +5332,17 @@
         <v>328</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="6" t="s">
@@ -5384,17 +5356,17 @@
         <v>330</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="6" t="s">
@@ -5408,17 +5380,17 @@
         <v>332</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="6" t="s">
@@ -5432,17 +5404,17 @@
         <v>334</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="6" t="s">
@@ -5456,17 +5428,17 @@
         <v>336</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="6" t="s">
@@ -5480,17 +5452,17 @@
         <v>338</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="6" t="s">
@@ -5504,17 +5476,17 @@
         <v>340</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="6" t="s">
@@ -5528,17 +5500,17 @@
         <v>342</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="6" t="s">
@@ -5552,17 +5524,17 @@
         <v>344</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="6" t="s">
@@ -5576,20 +5548,20 @@
         <v>346</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="7" t="s">
         <v>347</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -5605,15 +5577,15 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>349</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -5629,15 +5601,15 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="9"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
@@ -5646,20 +5618,20 @@
         <v>351</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="9"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
         <v>7</v>
       </c>
@@ -5668,20 +5640,20 @@
         <v>352</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>353</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -5697,15 +5669,15 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>355</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -5721,15 +5693,15 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="9"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5738,20 +5710,20 @@
         <v>357</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="9"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
         <v>7</v>
       </c>
@@ -5760,17 +5732,17 @@
         <v>358</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="6" t="s">
@@ -5779,24 +5751,24 @@
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E51" s="10"/>
+      <c r="E51" s="8"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="6" t="s">
@@ -5805,24 +5777,24 @@
       <c r="B52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E52" s="10"/>
+      <c r="E52" s="8"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="6" t="s">
@@ -5831,24 +5803,24 @@
       <c r="B53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="H53" s="7"/>
+      <c r="E53" s="9"/>
+      <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="6" t="s">
@@ -5857,24 +5829,24 @@
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="H54" s="7"/>
+      <c r="E54" s="9"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="6" t="s">
@@ -5883,24 +5855,24 @@
       <c r="B55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E55" s="12"/>
+      <c r="E55" s="9"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="6" t="s">
@@ -5909,24 +5881,24 @@
       <c r="B56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E56" s="12"/>
+      <c r="E56" s="9"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="6" t="s">
@@ -5935,24 +5907,24 @@
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="H57" s="7"/>
+      <c r="E57" s="9"/>
+      <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="7"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="6" t="s">
@@ -5961,1009 +5933,1009 @@
       <c r="B58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="H58" s="7"/>
+      <c r="E58" s="9"/>
+      <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="10" t="s">
         <v>383</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E59" s="12"/>
+      <c r="E59" s="9"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="10" t="s">
         <v>386</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="E60" s="12"/>
+      <c r="E60" s="9"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E61" s="12"/>
+      <c r="E61" s="9"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="10" t="s">
         <v>392</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="14" t="s">
+      <c r="C62" s="9"/>
+      <c r="D62" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="9"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="13"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="14" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="9"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="13"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="14" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="E64" s="12"/>
+      <c r="E64" s="9"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="10" t="s">
         <v>396</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="H65" s="7"/>
+      <c r="E65" s="9"/>
+      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="7"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="10" t="s">
         <v>399</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="14" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="E66" s="12"/>
+      <c r="E66" s="9"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="10" t="s">
         <v>401</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="H67" s="7"/>
+      <c r="E67" s="9"/>
+      <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="10" t="s">
         <v>404</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="H68" s="7"/>
+      <c r="E68" s="9"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="10" t="s">
         <v>407</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="H69" s="7"/>
+      <c r="E69" s="9"/>
+      <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="10" t="s">
         <v>410</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="H70" s="7"/>
+      <c r="E70" s="9"/>
+      <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="10" t="s">
         <v>413</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="H71" s="7"/>
+      <c r="E71" s="9"/>
+      <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="10" t="s">
         <v>416</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="E72" s="12"/>
-      <c r="H72" s="7"/>
+      <c r="E72" s="9"/>
+      <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="10" t="s">
         <v>419</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="14" t="s">
+      <c r="C73" s="9"/>
+      <c r="D73" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="H73" s="7"/>
+      <c r="E73" s="9"/>
+      <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="10" t="s">
         <v>421</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="14" t="s">
+      <c r="C74" s="9"/>
+      <c r="D74" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="H74" s="7"/>
+      <c r="E74" s="9"/>
+      <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="10" t="s">
         <v>423</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="14" t="s">
+      <c r="C75" s="9"/>
+      <c r="D75" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="H75" s="7"/>
+      <c r="E75" s="9"/>
+      <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="10" t="s">
         <v>425</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="14" t="s">
+      <c r="C76" s="9"/>
+      <c r="D76" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="E76" s="12"/>
-      <c r="H76" s="7"/>
+      <c r="E76" s="9"/>
+      <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="10" t="s">
         <v>427</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="14" t="s">
+      <c r="C77" s="9"/>
+      <c r="D77" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="E77" s="12"/>
-      <c r="H77" s="7"/>
+      <c r="E77" s="9"/>
+      <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="10" t="s">
         <v>429</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="9"/>
+      <c r="D78" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="E78" s="12"/>
-      <c r="H78" s="7"/>
+      <c r="E78" s="9"/>
+      <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="10" t="s">
         <v>431</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="14" t="s">
+      <c r="C79" s="9"/>
+      <c r="D79" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="E79" s="12"/>
-      <c r="H79" s="7"/>
+      <c r="E79" s="9"/>
+      <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="10" t="s">
         <v>433</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="14" t="s">
+      <c r="C80" s="9"/>
+      <c r="D80" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="H80" s="7"/>
+      <c r="E80" s="9"/>
+      <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="10" t="s">
         <v>435</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="14" t="s">
+      <c r="C81" s="9"/>
+      <c r="D81" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="H81" s="7"/>
+      <c r="E81" s="9"/>
+      <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="9" t="s">
         <v>437</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="14" t="s">
+      <c r="C82" s="9"/>
+      <c r="D82" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="H82" s="7"/>
+      <c r="E82" s="9"/>
+      <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="9" t="s">
         <v>439</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="14" t="s">
+      <c r="C83" s="9"/>
+      <c r="D83" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="E83" s="12"/>
-      <c r="H83" s="7"/>
+      <c r="E83" s="9"/>
+      <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="9" t="s">
         <v>441</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="14" t="s">
+      <c r="C84" s="9"/>
+      <c r="D84" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="H84" s="7"/>
+      <c r="E84" s="9"/>
+      <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
     </row>
     <row r="85" spans="8:18">
-      <c r="H85" s="7"/>
+      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
     </row>
     <row r="86" spans="8:18">
-      <c r="H86" s="7"/>
+      <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
     </row>
     <row r="87" spans="8:18">
-      <c r="H87" s="7"/>
+      <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
     </row>
     <row r="88" spans="8:18">
-      <c r="H88" s="7"/>
+      <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
     </row>
     <row r="89" spans="8:18">
-      <c r="H89" s="7"/>
+      <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
     </row>
     <row r="90" spans="8:18">
-      <c r="H90" s="7"/>
+      <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
     </row>
     <row r="91" spans="8:18">
-      <c r="H91" s="7"/>
+      <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
     </row>
     <row r="92" spans="8:18">
-      <c r="H92" s="7"/>
+      <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
     </row>
     <row r="93" spans="8:18">
-      <c r="H93" s="7"/>
+      <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
     </row>
     <row r="94" spans="8:18">
-      <c r="H94" s="7"/>
+      <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
     </row>
     <row r="95" spans="8:18">
-      <c r="H95" s="7"/>
+      <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="15"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
     </row>
     <row r="96" spans="8:18">
-      <c r="H96" s="7"/>
+      <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
     </row>
     <row r="97" spans="8:18">
-      <c r="H97" s="7"/>
+      <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="15"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
     </row>
     <row r="98" spans="8:18">
-      <c r="H98" s="7"/>
+      <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="15"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
     </row>
     <row r="99" spans="8:18">
-      <c r="H99" s="7"/>
+      <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
     </row>
     <row r="100" spans="8:18">
-      <c r="H100" s="7"/>
+      <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="15"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
     </row>
     <row r="101" spans="8:18">
-      <c r="H101" s="7"/>
+      <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
     </row>
     <row r="102" spans="8:18">
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
     </row>
     <row r="103" spans="8:18">
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="15"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="15"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
     </row>
     <row r="104" spans="8:18">
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="15"/>
-      <c r="O104" s="15"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="15"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
     </row>
     <row r="105" spans="8:18">
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
     </row>
     <row r="110" spans="8:13">
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
     </row>
     <row r="111" spans="8:13">
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
     </row>
     <row r="112" spans="8:13">
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
     </row>
     <row r="113" spans="8:13">
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
     </row>
     <row r="114" spans="8:13">
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
     </row>
     <row r="115" spans="8:13">
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
     </row>
     <row r="116" spans="8:13">
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
     </row>
     <row r="117" spans="8:13">
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
     </row>
     <row r="118" spans="8:13">
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
